--- a/utils/rebalance_tools/blog_posts/August_2019.xlsx
+++ b/utils/rebalance_tools/blog_posts/August_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoin\Desktop\Mike\Bletch\bcindex\utils\rebalance_tools\blog_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C217C6-0082-4E73-9DD0-BB6C5BD73EF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA7A4E6-6399-47E5-AA47-75B2E3F0391F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30645" yWindow="2685" windowWidth="21600" windowHeight="11385" tabRatio="889" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="3345" windowWidth="15255" windowHeight="11445" tabRatio="889" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sharpe" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="67">
   <si>
     <t>ten</t>
   </si>
@@ -206,40 +206,34 @@
     <t>ETC</t>
   </si>
   <si>
-    <t>ICX</t>
-  </si>
-  <si>
-    <t>DCR</t>
-  </si>
-  <si>
-    <t>AION ARDR ENG LRC</t>
-  </si>
-  <si>
-    <t>DGB HOLO RDD ZEN</t>
-  </si>
-  <si>
-    <t>AION ARDR ENG ICX LRC</t>
-  </si>
-  <si>
-    <t>DCR DGB HOLO RDD ZEN</t>
-  </si>
-  <si>
     <t>AION ENG LRC</t>
   </si>
   <si>
-    <t>DGB ZEN</t>
+    <t>DCR TRX</t>
   </si>
   <si>
-    <t>AION ARDR</t>
+    <t>BNB BTG</t>
   </si>
   <si>
-    <t>DCR HOLO</t>
+    <t>BTG DGB WAN ZEN</t>
   </si>
   <si>
-    <t>ENG ICX LRC</t>
+    <t>AION ENG LRC STRAT</t>
   </si>
   <si>
-    <t>RDD</t>
+    <t>DCR DGB WAN ZEN</t>
+  </si>
+  <si>
+    <t>DBG ZEN</t>
+  </si>
+  <si>
+    <t>DCR WAN</t>
+  </si>
+  <si>
+    <t>AION STRAT</t>
+  </si>
+  <si>
+    <t>ENG LRC</t>
   </si>
 </sst>
 </file>
@@ -4656,7 +4650,7 @@
   <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5074,13 +5068,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E11" s="41">
-        <v>4.0776112308181397E-4</v>
+        <v>5.9838199999999995E-4</v>
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
@@ -5104,13 +5098,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="43">
-        <v>7.8135923487402406E-2</v>
+        <v>9.0416300000000005E-2</v>
       </c>
       <c r="F12" s="52"/>
       <c r="G12" s="52"/>
@@ -5134,13 +5128,13 @@
         <v>40</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="35">
-        <v>0.10240361816170999</v>
+        <v>9.8876442999999994E-2</v>
       </c>
       <c r="F13" s="52"/>
       <c r="G13" s="52"/>
@@ -5164,13 +5158,13 @@
         <v>31</v>
       </c>
       <c r="C14" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="45" t="s">
-        <v>62</v>
-      </c>
       <c r="E14" s="43">
-        <v>5.8094807278393596E-3</v>
+        <v>6.7600560000000004E-3</v>
       </c>
       <c r="F14" s="52"/>
       <c r="G14" s="52"/>
@@ -5220,13 +5214,13 @@
         <v>35</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E15" s="35">
-        <v>3.07727420707492E-2</v>
+        <v>3.0272337999999999E-2</v>
       </c>
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
@@ -5278,13 +5272,13 @@
         <v>37</v>
       </c>
       <c r="C16" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="45" t="s">
-        <v>64</v>
-      </c>
       <c r="E16" s="43">
-        <v>5.0194182911626004E-3</v>
+        <v>4.9570760000000004E-3</v>
       </c>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
@@ -5344,13 +5338,13 @@
         <v>38</v>
       </c>
       <c r="C17" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>66</v>
-      </c>
       <c r="E17" s="35">
-        <v>3.3420626922549899E-2</v>
+        <v>2.9093484999999999E-2</v>
       </c>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
@@ -5374,13 +5368,13 @@
         <v>39</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" s="51">
-        <v>5.1618927552866602E-2</v>
+        <v>5.4918150999999998E-2</v>
       </c>
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
@@ -5406,6 +5400,9 @@
       <c r="E19" s="42"/>
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
+      <c r="J19" s="29">
+        <v>5.9838199999999995E-4</v>
+      </c>
       <c r="P19" s="32"/>
       <c r="Q19" s="5" t="s">
         <v>13</v>
@@ -5438,8 +5435,8 @@
       </c>
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
-      <c r="J20" s="29" t="s">
-        <v>32</v>
+      <c r="J20" s="29">
+        <v>9.0416300000000005E-2</v>
       </c>
       <c r="K20" t="s">
         <v>33</v>
@@ -5487,8 +5484,7 @@
         <v>7</v>
       </c>
       <c r="J21" s="29">
-        <f>SUMIFS($Q$20:$Q$29,$P$20:$P$29,I21)*0.01</f>
-        <v>0.11229919000000001</v>
+        <v>9.8876442999999994E-2</v>
       </c>
       <c r="K21" s="29">
         <f>SUMIFS($T$20:$T$29,$S$20:$S$29,I21)*1</f>
@@ -5496,7 +5492,7 @@
       </c>
       <c r="L21" s="29">
         <f>J21*K21</f>
-        <v>7.5551781996671952E-2</v>
+        <v>6.6521329905784354E-2</v>
       </c>
       <c r="P21" t="s">
         <v>8</v>
@@ -5538,16 +5534,15 @@
         <v>17</v>
       </c>
       <c r="J22" s="29">
-        <f t="shared" ref="J22:J30" si="1">SUMIFS($Q$20:$Q$29,$P$20:$P$29,I22)*0.01</f>
-        <v>1.119066E-2</v>
+        <v>6.7600560000000004E-3</v>
       </c>
       <c r="K22" s="29">
-        <f t="shared" ref="K22:K30" si="2">SUMIFS($T$20:$T$29,$S$20:$S$29,I22)*1</f>
+        <f t="shared" ref="K22:K30" si="1">SUMIFS($T$20:$T$29,$S$20:$S$29,I22)*1</f>
         <v>7.5445162160572704E-2</v>
       </c>
       <c r="L22" s="29">
-        <f t="shared" ref="L22:L30" si="3">J22*K22</f>
-        <v>8.4428115838383448E-4</v>
+        <f t="shared" ref="L22:L30" si="2">J22*K22</f>
+        <v>5.1001352113455253E-4</v>
       </c>
       <c r="P22" t="s">
         <v>17</v>
@@ -5589,16 +5584,15 @@
         <v>18</v>
       </c>
       <c r="J23" s="29">
+        <v>3.0272337999999999E-2</v>
+      </c>
+      <c r="K23" s="29">
         <f t="shared" si="1"/>
-        <v>3.7296040000000003E-2</v>
-      </c>
-      <c r="K23" s="29">
+        <v>1.7402963642387699E-2</v>
+      </c>
+      <c r="L23" s="29">
         <f t="shared" si="2"/>
-        <v>1.7402963642387699E-2</v>
-      </c>
-      <c r="L23" s="29">
-        <f t="shared" si="3"/>
-        <v>6.4906162812503737E-4</v>
+        <v>5.2682839758407159E-4</v>
       </c>
       <c r="P23" t="s">
         <v>18</v>
@@ -5633,16 +5627,15 @@
         <v>8</v>
       </c>
       <c r="J24" s="29">
+        <v>4.9570760000000004E-3</v>
+      </c>
+      <c r="K24" s="29">
         <f t="shared" si="1"/>
-        <v>0.27113995000000002</v>
-      </c>
-      <c r="K24" s="29">
+        <v>0.12494269299122</v>
+      </c>
+      <c r="L24" s="29">
         <f t="shared" si="2"/>
-        <v>0.12494269299122</v>
-      </c>
-      <c r="L24" s="29">
-        <f t="shared" si="3"/>
-        <v>3.3876955530504745E-2</v>
+        <v>6.1935042480214491E-4</v>
       </c>
       <c r="P24" t="s">
         <v>19</v>
@@ -5677,16 +5670,15 @@
         <v>22</v>
       </c>
       <c r="J25" s="29">
+        <v>2.9093484999999999E-2</v>
+      </c>
+      <c r="K25" s="29">
         <f t="shared" si="1"/>
-        <v>0.51014744999999995</v>
-      </c>
-      <c r="K25" s="29">
+        <v>2.3611051743154601E-2</v>
+      </c>
+      <c r="L25" s="29">
         <f t="shared" si="2"/>
-        <v>2.3611051743154601E-2</v>
-      </c>
-      <c r="L25" s="29">
-        <f t="shared" si="3"/>
-        <v>1.2045117838588373E-2</v>
+        <v>6.8692777972369223E-4</v>
       </c>
       <c r="P25" t="s">
         <v>20</v>
@@ -5721,16 +5713,15 @@
         <v>20</v>
       </c>
       <c r="J26" s="29">
+        <v>5.4918150999999998E-2</v>
+      </c>
+      <c r="K26" s="29">
         <f t="shared" si="1"/>
-        <v>0.14095072</v>
-      </c>
-      <c r="K26" s="29">
+        <v>2.2377719021100698E-2</v>
+      </c>
+      <c r="L26" s="29">
         <f t="shared" si="2"/>
-        <v>2.2377719021100698E-2</v>
-      </c>
-      <c r="L26" s="29">
-        <f t="shared" si="3"/>
-        <v>3.1541556079818386E-3</v>
+        <v>1.2289429522363803E-3</v>
       </c>
       <c r="P26" t="s">
         <v>50</v>
@@ -5765,15 +5756,15 @@
         <v>19</v>
       </c>
       <c r="J27" s="29">
+        <f t="shared" ref="J27:J30" si="3">SUMIFS($Q$20:$Q$29,$P$20:$P$29,I27)*0.01</f>
+        <v>0.44293748999999999</v>
+      </c>
+      <c r="K27" s="29">
         <f t="shared" si="1"/>
-        <v>0.44293748999999999</v>
-      </c>
-      <c r="K27" s="29">
+        <v>2.1236542980237302E-2</v>
+      </c>
+      <c r="L27" s="29">
         <f t="shared" si="2"/>
-        <v>2.1236542980237302E-2</v>
-      </c>
-      <c r="L27" s="29">
-        <f t="shared" si="3"/>
         <v>9.4064610439434301E-3</v>
       </c>
       <c r="P27" t="s">
@@ -5809,15 +5800,15 @@
         <v>23</v>
       </c>
       <c r="J28" s="29">
+        <f t="shared" si="3"/>
+        <v>0.11780036000000001</v>
+      </c>
+      <c r="K28" s="29">
         <f t="shared" si="1"/>
-        <v>0.11780036000000001</v>
-      </c>
-      <c r="K28" s="29">
+        <v>1.11214542362184E-2</v>
+      </c>
+      <c r="L28" s="29">
         <f t="shared" si="2"/>
-        <v>1.11214542362184E-2</v>
-      </c>
-      <c r="L28" s="29">
-        <f t="shared" si="3"/>
         <v>1.3101113127500527E-3</v>
       </c>
       <c r="P28" t="s">
@@ -5853,15 +5844,15 @@
         <v>21</v>
       </c>
       <c r="J29" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K29" s="29">
+      <c r="L29" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="29">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P29" t="s">
@@ -5897,15 +5888,15 @@
         <v>49</v>
       </c>
       <c r="J30" s="29">
+        <f t="shared" si="3"/>
+        <v>4.3094489999999999E-2</v>
+      </c>
+      <c r="K30" s="29">
         <f t="shared" si="1"/>
-        <v>4.3094489999999999E-2</v>
-      </c>
-      <c r="K30" s="29">
+        <v>1.25239648154249E-2</v>
+      </c>
+      <c r="L30" s="29">
         <f t="shared" si="2"/>
-        <v>1.25239648154249E-2</v>
-      </c>
-      <c r="L30" s="29">
-        <f t="shared" si="3"/>
         <v>5.3971387649868021E-4</v>
       </c>
       <c r="Q30" s="6"/>
@@ -5932,6 +5923,9 @@
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
       <c r="I32" s="24"/>
+      <c r="J32" s="29">
+        <v>5.9838199999999995E-4</v>
+      </c>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="Q32" s="6"/>
@@ -5942,6 +5936,9 @@
       <c r="D33" s="49"/>
       <c r="E33" s="38"/>
       <c r="I33" s="24"/>
+      <c r="J33" s="29">
+        <v>9.0416300000000005E-2</v>
+      </c>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
       <c r="Q33" s="6"/>
@@ -5952,6 +5949,9 @@
       <c r="D34" s="49"/>
       <c r="E34" s="38"/>
       <c r="I34" s="24"/>
+      <c r="J34" s="29">
+        <v>9.8876442999999994E-2</v>
+      </c>
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="Q34" s="6"/>
@@ -5962,6 +5962,9 @@
       <c r="D35" s="49"/>
       <c r="E35" s="38"/>
       <c r="I35" s="24"/>
+      <c r="J35" s="29">
+        <v>6.7600560000000004E-3</v>
+      </c>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="Q35" s="6"/>
@@ -5972,6 +5975,9 @@
       <c r="D36" s="49"/>
       <c r="E36" s="38"/>
       <c r="I36" s="24"/>
+      <c r="J36" s="29">
+        <v>3.0272337999999999E-2</v>
+      </c>
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
       <c r="Q36" s="6"/>
@@ -5982,6 +5988,9 @@
       <c r="D37" s="49"/>
       <c r="E37" s="38"/>
       <c r="I37" s="24"/>
+      <c r="J37" s="29">
+        <v>4.9570760000000004E-3</v>
+      </c>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="Q37" s="6"/>
@@ -5992,6 +6001,9 @@
       <c r="D38" s="49"/>
       <c r="E38" s="38"/>
       <c r="I38" s="24"/>
+      <c r="J38" s="29">
+        <v>2.9093484999999999E-2</v>
+      </c>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="Q38" s="6"/>
@@ -6001,6 +6013,9 @@
       <c r="C39" s="49"/>
       <c r="D39" s="49"/>
       <c r="E39" s="38"/>
+      <c r="J39" s="29">
+        <v>5.4918150999999998E-2</v>
+      </c>
       <c r="Q39" s="6"/>
     </row>
     <row r="40" spans="1:17">
